--- a/data/recall.xlsx
+++ b/data/recall.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\koron\work\so-net\jsts-vector-eval\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{75C64896-F0F9-40E3-974C-F3848893EF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172E6E3-FE1D-478D-B066-33FE942BAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recall" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">recall!$A$1:$I$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">recall!$A$1:$J$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>Q-type</t>
   </si>
@@ -63,13 +63,17 @@
   <si>
     <t>LSQ</t>
   </si>
+  <si>
+    <t>norm</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -678,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,16 +692,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,23 +1055,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="6"/>
+    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1084,22 +1086,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,23 +1117,26 @@
       <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <v>10000</v>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.86546999999999996</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.87512999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,23 +1149,26 @@
       <c r="D3" s="1">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>10000</v>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.60853999999999997</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.64512000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1170,23 +1181,26 @@
       <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>10000</v>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.31744</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.38217000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1199,23 +1213,26 @@
       <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <v>10000</v>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.12970999999999999</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="4">
         <v>0.21617</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,23 +1245,26 @@
       <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>10000</v>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.83331</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.84536999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,23 +1277,26 @@
       <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
-        <v>10000</v>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.55367999999999995</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.59072000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,23 +1309,26 @@
       <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
-        <v>10000</v>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.26994000000000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>0.34486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,23 +1341,26 @@
       <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
-        <v>10000</v>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
         <v>0.12136</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="4">
         <v>0.21045</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1344,23 +1373,26 @@
       <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
-        <v>10000</v>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.84813000000000005</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>0.86016999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,23 +1405,26 @@
       <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
-        <v>10000</v>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.57752000000000003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.61604999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1402,23 +1437,26 @@
       <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
-        <v>10000</v>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.30307000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.37098999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1431,23 +1469,26 @@
       <c r="D13" s="1">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
-        <v>10000</v>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="1">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.14806</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="4">
         <v>0.23921000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1460,23 +1501,26 @@
       <c r="D14" s="1">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
-        <v>10000</v>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.66440999999999995</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>0.69147999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1489,23 +1533,26 @@
       <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
-        <v>10000</v>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="1">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
         <v>0.49883</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>0.54268000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,23 +1565,26 @@
       <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="E16" s="1">
-        <v>10000</v>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G16" s="1">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.29608000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.36553000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1547,24 +1597,539 @@
       <c r="D17" s="1">
         <v>8</v>
       </c>
-      <c r="E17" s="1">
-        <v>10000</v>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G17" s="1">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
         <v>0.16389999999999999</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="4">
         <v>0.24890000000000001</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.85362000000000005</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.86453000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.59321999999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.62853999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.31202000000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.37898999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.12501000000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.21321000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.83613999999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.84674000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.55454000000000003</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.59536999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.34181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.11823</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.20587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.86012</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.87107999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.63302000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.30817</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.38035000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.23505999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.67615999999999998</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.70294999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.50992000000000004</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.55649000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.36070000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.15923999999999999</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.24660000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I17"/>
+  <autoFilter ref="A1:J33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/recall.xlsx
+++ b/data/recall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\koron\work\so-net\jsts-vector-eval\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172E6E3-FE1D-478D-B066-33FE942BAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC194E-FC52-45B8-8974-C9761C8B9545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,24 +682,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1058,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1069,38 +1072,38 @@
     <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="5"/>
+    <col min="9" max="10" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1129,10 +1132,10 @@
       <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>0.86546999999999996</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>0.87512999999999996</v>
       </c>
     </row>
@@ -1161,10 +1164,10 @@
       <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>0.60853999999999997</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>0.64512000000000003</v>
       </c>
     </row>
@@ -1193,10 +1196,10 @@
       <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>0.31744</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>0.38217000000000001</v>
       </c>
     </row>
@@ -1225,10 +1228,10 @@
       <c r="H5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>0.12970999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>0.21617</v>
       </c>
     </row>
@@ -1257,10 +1260,10 @@
       <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>0.83331</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>0.84536999999999995</v>
       </c>
     </row>
@@ -1289,10 +1292,10 @@
       <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>0.55367999999999995</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>0.59072000000000002</v>
       </c>
     </row>
@@ -1321,10 +1324,10 @@
       <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>0.26994000000000001</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>0.34486</v>
       </c>
     </row>
@@ -1353,10 +1356,10 @@
       <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>0.12136</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>0.21045</v>
       </c>
     </row>
@@ -1385,10 +1388,10 @@
       <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>0.84813000000000005</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>0.86016999999999999</v>
       </c>
     </row>
@@ -1417,10 +1420,10 @@
       <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>0.57752000000000003</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>0.61604999999999999</v>
       </c>
     </row>
@@ -1449,10 +1452,10 @@
       <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>0.30307000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>0.37098999999999999</v>
       </c>
     </row>
@@ -1481,10 +1484,10 @@
       <c r="H13" s="1">
         <v>10</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>0.14806</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>0.23921000000000001</v>
       </c>
     </row>
@@ -1513,10 +1516,10 @@
       <c r="H14" s="1">
         <v>10</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>0.66440999999999995</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>0.69147999999999998</v>
       </c>
     </row>
@@ -1545,10 +1548,10 @@
       <c r="H15" s="1">
         <v>10</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>0.49883</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>0.54268000000000005</v>
       </c>
     </row>
@@ -1577,10 +1580,10 @@
       <c r="H16" s="1">
         <v>10</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>0.29608000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>0.36553000000000002</v>
       </c>
     </row>
@@ -1609,10 +1612,10 @@
       <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>0.16389999999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>0.24890000000000001</v>
       </c>
     </row>
@@ -1641,10 +1644,10 @@
       <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>0.85362000000000005</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>0.86453000000000002</v>
       </c>
     </row>
@@ -1673,10 +1676,10 @@
       <c r="H19" s="1">
         <v>10</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>0.59321999999999997</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>0.62853999999999999</v>
       </c>
     </row>
@@ -1705,10 +1708,10 @@
       <c r="H20" s="1">
         <v>10</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>0.31202000000000002</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>0.37898999999999999</v>
       </c>
     </row>
@@ -1737,10 +1740,10 @@
       <c r="H21" s="1">
         <v>10</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>0.12501000000000001</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>0.21321000000000001</v>
       </c>
     </row>
@@ -1769,10 +1772,10 @@
       <c r="H22" s="1">
         <v>10</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <v>0.83613999999999999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>0.84674000000000005</v>
       </c>
     </row>
@@ -1801,10 +1804,10 @@
       <c r="H23" s="1">
         <v>10</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>0.55454000000000003</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>0.59536999999999995</v>
       </c>
     </row>
@@ -1833,10 +1836,10 @@
       <c r="H24" s="1">
         <v>10</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>0.26950000000000002</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>0.34181</v>
       </c>
     </row>
@@ -1865,10 +1868,10 @@
       <c r="H25" s="1">
         <v>10</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <v>0.11823</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>0.20587</v>
       </c>
     </row>
@@ -1897,10 +1900,10 @@
       <c r="H26" s="1">
         <v>10</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <v>0.86012</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>0.87107999999999997</v>
       </c>
     </row>
@@ -1929,10 +1932,10 @@
       <c r="H27" s="1">
         <v>10</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>0.59640000000000004</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>0.63302000000000003</v>
       </c>
     </row>
@@ -1961,10 +1964,10 @@
       <c r="H28" s="1">
         <v>10</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>0.30817</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>0.38035000000000002</v>
       </c>
     </row>
@@ -1993,10 +1996,10 @@
       <c r="H29" s="1">
         <v>10</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>0.23505999999999999</v>
       </c>
     </row>
@@ -2025,10 +2028,10 @@
       <c r="H30" s="1">
         <v>10</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>0.67615999999999998</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>0.70294999999999996</v>
       </c>
     </row>
@@ -2057,10 +2060,10 @@
       <c r="H31" s="1">
         <v>10</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <v>0.50992000000000004</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>0.55649000000000004</v>
       </c>
     </row>
@@ -2089,10 +2092,10 @@
       <c r="H32" s="1">
         <v>10</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="2">
         <v>0.29549999999999998</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="2">
         <v>0.36070000000000002</v>
       </c>
     </row>
@@ -2121,10 +2124,10 @@
       <c r="H33" s="1">
         <v>10</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <v>0.15923999999999999</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="2">
         <v>0.24660000000000001</v>
       </c>
     </row>
